--- a/Salas/Info_Salas.xlsx
+++ b/Salas/Info_Salas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aariz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60417830953b312/Escritorio/iPre/IPre20232Calendario/Salas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4445CD-D7B7-458F-93E6-45D4312C3563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7B4445CD-D7B7-458F-93E6-45D4312C3563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF3C41F-F9C1-4C42-BDBA-5FA2E2D24EFF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="493">
   <si>
-    <t>Location Name</t>
-  </si>
-  <si>
     <t>Location Formal Name</t>
   </si>
   <si>
@@ -1515,6 +1512,9 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -1954,7 +1954,7 @@
   <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1967,39 +1967,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -2007,19 +2007,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -2027,19 +2027,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="C4">
         <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -2047,19 +2047,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5">
         <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -2067,19 +2067,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
       </c>
       <c r="C6">
         <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2087,19 +2087,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
       <c r="C7">
         <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2107,19 +2107,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
       <c r="C8">
         <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2127,19 +2127,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
       </c>
       <c r="C9">
         <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2147,19 +2147,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
       <c r="C10">
         <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2167,19 +2167,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
       <c r="C11">
         <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2187,19 +2187,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
       </c>
       <c r="C12">
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2207,19 +2207,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
       </c>
       <c r="C13">
         <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2227,19 +2227,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
       <c r="C14">
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2247,19 +2247,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
       </c>
       <c r="C15">
         <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2267,19 +2267,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
       </c>
       <c r="C16">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2287,19 +2287,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
       </c>
       <c r="C17">
         <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2307,19 +2307,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
       </c>
       <c r="C18">
         <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2327,19 +2327,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
       </c>
       <c r="C19">
         <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2347,19 +2347,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
       </c>
       <c r="C20">
         <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2367,19 +2367,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
       </c>
       <c r="C21">
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2387,19 +2387,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
       </c>
       <c r="C22">
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2407,19 +2407,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
       </c>
       <c r="C23">
         <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2427,19 +2427,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
       </c>
       <c r="C24">
         <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2447,19 +2447,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
       </c>
       <c r="C25">
         <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2467,19 +2467,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
       </c>
       <c r="C26">
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -2487,19 +2487,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
       </c>
       <c r="C27">
         <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -2507,19 +2507,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
       </c>
       <c r="C28">
         <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -2527,19 +2527,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
       </c>
       <c r="C29">
         <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -2547,19 +2547,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
       </c>
       <c r="C30">
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2567,19 +2567,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
       </c>
       <c r="C31">
         <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -2587,19 +2587,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
       </c>
       <c r="C32">
         <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -2607,19 +2607,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
       </c>
       <c r="C33">
         <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -2627,19 +2627,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
       </c>
       <c r="C34">
         <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -2647,19 +2647,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
       </c>
       <c r="C35">
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -2667,19 +2667,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
       </c>
       <c r="C36">
         <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -2687,19 +2687,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
       </c>
       <c r="C37">
         <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2707,19 +2707,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
       </c>
       <c r="C38">
         <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2727,19 +2727,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
       </c>
       <c r="C39">
         <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -2747,19 +2747,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
       </c>
       <c r="C40">
         <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -2767,19 +2767,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
       </c>
       <c r="C41">
         <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -2787,19 +2787,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
       </c>
       <c r="C42">
         <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E42" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -2807,19 +2807,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
         <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>88</v>
       </c>
       <c r="C43">
         <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -2827,19 +2827,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
       </c>
       <c r="C44">
         <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -2847,19 +2847,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
         <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
       </c>
       <c r="C45">
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -2867,19 +2867,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
       </c>
       <c r="C46">
         <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E46" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
       </c>
       <c r="C47">
         <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -2907,19 +2907,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
       </c>
       <c r="C48">
         <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -2927,19 +2927,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
       </c>
       <c r="C49">
         <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E49" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2947,19 +2947,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
       </c>
       <c r="C50">
         <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E50" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2967,19 +2967,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
       </c>
       <c r="C51">
         <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2987,19 +2987,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
       </c>
       <c r="C52">
         <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3007,19 +3007,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
         <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
       </c>
       <c r="C53">
         <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -3027,19 +3027,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" t="s">
-        <v>110</v>
       </c>
       <c r="C54">
         <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -3047,19 +3047,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
         <v>111</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
       </c>
       <c r="C55">
         <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E55" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3067,19 +3067,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
         <v>113</v>
-      </c>
-      <c r="B56" t="s">
-        <v>114</v>
       </c>
       <c r="C56">
         <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -3087,19 +3087,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
         <v>115</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
       </c>
       <c r="C57">
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -3107,19 +3107,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
         <v>117</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
       </c>
       <c r="C58">
         <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E58" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3127,19 +3127,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
         <v>119</v>
-      </c>
-      <c r="B59" t="s">
-        <v>120</v>
       </c>
       <c r="C59">
         <v>80</v>
       </c>
       <c r="D59" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E59" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3147,19 +3147,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
         <v>121</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
       </c>
       <c r="C60">
         <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -3167,19 +3167,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
         <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
       </c>
       <c r="C61">
         <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E61" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -3187,19 +3187,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
         <v>125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
       </c>
       <c r="C62">
         <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E62" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -3207,19 +3207,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
         <v>127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>128</v>
       </c>
       <c r="C63">
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E63" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -3227,19 +3227,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
         <v>129</v>
-      </c>
-      <c r="B64" t="s">
-        <v>130</v>
       </c>
       <c r="C64">
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -3247,19 +3247,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
         <v>131</v>
-      </c>
-      <c r="B65" t="s">
-        <v>132</v>
       </c>
       <c r="C65">
         <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E65" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -3267,131 +3267,131 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
         <v>133</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
       </c>
       <c r="C66">
         <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
         <v>135</v>
-      </c>
-      <c r="B67" t="s">
-        <v>136</v>
       </c>
       <c r="C67">
         <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
         <v>137</v>
-      </c>
-      <c r="B68" t="s">
-        <v>138</v>
       </c>
       <c r="C68">
         <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
         <v>139</v>
-      </c>
-      <c r="B69" t="s">
-        <v>140</v>
       </c>
       <c r="C69">
         <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
         <v>141</v>
-      </c>
-      <c r="B70" t="s">
-        <v>142</v>
       </c>
       <c r="C70">
         <v>60</v>
       </c>
       <c r="D70" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
         <v>143</v>
-      </c>
-      <c r="B71" t="s">
-        <v>144</v>
       </c>
       <c r="C71">
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
         <v>145</v>
-      </c>
-      <c r="B72" t="s">
-        <v>146</v>
       </c>
       <c r="C72">
         <v>60</v>
       </c>
       <c r="D72" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
         <v>147</v>
-      </c>
-      <c r="B73" t="s">
-        <v>148</v>
       </c>
       <c r="C73">
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" t="s">
         <v>179</v>
-      </c>
-      <c r="B74" t="s">
-        <v>180</v>
       </c>
       <c r="C74">
         <v>110</v>
       </c>
       <c r="D74" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3399,19 +3399,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
         <v>149</v>
-      </c>
-      <c r="B75" t="s">
-        <v>150</v>
       </c>
       <c r="C75">
         <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E75" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3419,19 +3419,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
         <v>151</v>
-      </c>
-      <c r="B76" t="s">
-        <v>152</v>
       </c>
       <c r="C76">
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E76" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3439,19 +3439,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
         <v>153</v>
-      </c>
-      <c r="B77" t="s">
-        <v>154</v>
       </c>
       <c r="C77">
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3459,19 +3459,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
         <v>155</v>
-      </c>
-      <c r="B78" t="s">
-        <v>156</v>
       </c>
       <c r="C78">
         <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E78" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3479,19 +3479,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
         <v>157</v>
-      </c>
-      <c r="B79" t="s">
-        <v>158</v>
       </c>
       <c r="C79">
         <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E79" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3499,19 +3499,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
         <v>159</v>
-      </c>
-      <c r="B80" t="s">
-        <v>160</v>
       </c>
       <c r="C80">
         <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3519,19 +3519,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
         <v>161</v>
-      </c>
-      <c r="B81" t="s">
-        <v>162</v>
       </c>
       <c r="C81">
         <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E81" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -3539,19 +3539,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
         <v>165</v>
-      </c>
-      <c r="B82" t="s">
-        <v>166</v>
       </c>
       <c r="C82">
         <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E82" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -3559,19 +3559,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
         <v>163</v>
-      </c>
-      <c r="B83" t="s">
-        <v>164</v>
       </c>
       <c r="C83">
         <v>72</v>
       </c>
       <c r="D83" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E83" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3579,19 +3579,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
         <v>167</v>
-      </c>
-      <c r="B84" t="s">
-        <v>168</v>
       </c>
       <c r="C84">
         <v>72</v>
       </c>
       <c r="D84" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E84" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3599,19 +3599,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
         <v>169</v>
-      </c>
-      <c r="B85" t="s">
-        <v>170</v>
       </c>
       <c r="C85">
         <v>42</v>
       </c>
       <c r="D85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E85" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3619,19 +3619,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
         <v>171</v>
-      </c>
-      <c r="B86" t="s">
-        <v>172</v>
       </c>
       <c r="C86">
         <v>25</v>
       </c>
       <c r="D86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E86" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -3639,19 +3639,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
         <v>173</v>
-      </c>
-      <c r="B87" t="s">
-        <v>174</v>
       </c>
       <c r="C87">
         <v>49</v>
       </c>
       <c r="D87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E87" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -3659,19 +3659,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
         <v>175</v>
-      </c>
-      <c r="B88" t="s">
-        <v>176</v>
       </c>
       <c r="C88">
         <v>54</v>
       </c>
       <c r="D88" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -3679,19 +3679,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
         <v>177</v>
-      </c>
-      <c r="B89" t="s">
-        <v>178</v>
       </c>
       <c r="C89">
         <v>49</v>
       </c>
       <c r="D89" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E89" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -3699,19 +3699,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" t="s">
         <v>337</v>
-      </c>
-      <c r="B90" t="s">
-        <v>338</v>
       </c>
       <c r="C90">
         <v>70</v>
       </c>
       <c r="D90" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E90" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3719,19 +3719,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>338</v>
+      </c>
+      <c r="B91" t="s">
         <v>339</v>
-      </c>
-      <c r="B91" t="s">
-        <v>340</v>
       </c>
       <c r="C91">
         <v>70</v>
       </c>
       <c r="D91" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E91" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -3739,19 +3739,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>340</v>
+      </c>
+      <c r="B92" t="s">
         <v>341</v>
-      </c>
-      <c r="B92" t="s">
-        <v>342</v>
       </c>
       <c r="C92">
         <v>70</v>
       </c>
       <c r="D92" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E92" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -3759,19 +3759,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93" t="s">
         <v>343</v>
-      </c>
-      <c r="B93" t="s">
-        <v>344</v>
       </c>
       <c r="C93">
         <v>70</v>
       </c>
       <c r="D93" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E93" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -3779,19 +3779,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>344</v>
+      </c>
+      <c r="B94" t="s">
         <v>345</v>
-      </c>
-      <c r="B94" t="s">
-        <v>346</v>
       </c>
       <c r="C94">
         <v>110</v>
       </c>
       <c r="D94" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E94" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3799,19 +3799,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" t="s">
         <v>181</v>
-      </c>
-      <c r="B95" t="s">
-        <v>182</v>
       </c>
       <c r="C95">
         <v>77</v>
       </c>
       <c r="D95" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E95" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3819,19 +3819,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" t="s">
         <v>183</v>
-      </c>
-      <c r="B96" t="s">
-        <v>184</v>
       </c>
       <c r="C96">
         <v>55</v>
       </c>
       <c r="D96" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E96" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -3839,19 +3839,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" t="s">
         <v>185</v>
-      </c>
-      <c r="B97" t="s">
-        <v>186</v>
       </c>
       <c r="C97">
         <v>93</v>
       </c>
       <c r="D97" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E97" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3859,19 +3859,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" t="s">
         <v>187</v>
-      </c>
-      <c r="B98" t="s">
-        <v>188</v>
       </c>
       <c r="C98">
         <v>90</v>
       </c>
       <c r="D98" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E98" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3879,19 +3879,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" t="s">
         <v>189</v>
-      </c>
-      <c r="B99" t="s">
-        <v>190</v>
       </c>
       <c r="C99">
         <v>90</v>
       </c>
       <c r="D99" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E99" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -3899,19 +3899,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" t="s">
         <v>191</v>
-      </c>
-      <c r="B100" t="s">
-        <v>192</v>
       </c>
       <c r="C100">
         <v>90</v>
       </c>
       <c r="D100" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -3919,19 +3919,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" t="s">
         <v>193</v>
-      </c>
-      <c r="B101" t="s">
-        <v>194</v>
       </c>
       <c r="C101">
         <v>90</v>
       </c>
       <c r="D101" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E101" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -3939,19 +3939,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" t="s">
         <v>225</v>
-      </c>
-      <c r="B102" t="s">
-        <v>226</v>
       </c>
       <c r="C102">
         <v>178</v>
       </c>
       <c r="D102" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E102" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -3959,19 +3959,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" t="s">
         <v>227</v>
-      </c>
-      <c r="B103" t="s">
-        <v>228</v>
       </c>
       <c r="C103">
         <v>178</v>
       </c>
       <c r="D103" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E103" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -3979,19 +3979,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104" t="s">
         <v>195</v>
-      </c>
-      <c r="B104" t="s">
-        <v>196</v>
       </c>
       <c r="C104">
         <v>90</v>
       </c>
       <c r="D104" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E104" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -3999,19 +3999,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105" t="s">
         <v>197</v>
-      </c>
-      <c r="B105" t="s">
-        <v>198</v>
       </c>
       <c r="C105">
         <v>90</v>
       </c>
       <c r="D105" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E105" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -4019,19 +4019,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>198</v>
+      </c>
+      <c r="B106" t="s">
         <v>199</v>
-      </c>
-      <c r="B106" t="s">
-        <v>200</v>
       </c>
       <c r="C106">
         <v>90</v>
       </c>
       <c r="D106" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E106" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -4039,19 +4039,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" t="s">
         <v>201</v>
-      </c>
-      <c r="B107" t="s">
-        <v>202</v>
       </c>
       <c r="C107">
         <v>90</v>
       </c>
       <c r="D107" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E107" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -4059,19 +4059,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" t="s">
         <v>203</v>
-      </c>
-      <c r="B108" t="s">
-        <v>204</v>
       </c>
       <c r="C108">
         <v>50</v>
       </c>
       <c r="D108" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E108" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4079,19 +4079,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>204</v>
+      </c>
+      <c r="B109" t="s">
         <v>205</v>
-      </c>
-      <c r="B109" t="s">
-        <v>206</v>
       </c>
       <c r="C109">
         <v>90</v>
       </c>
       <c r="D109" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E109" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -4099,19 +4099,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" t="s">
         <v>207</v>
-      </c>
-      <c r="B110" t="s">
-        <v>208</v>
       </c>
       <c r="C110">
         <v>90</v>
       </c>
       <c r="D110" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E110" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -4119,19 +4119,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111" t="s">
         <v>209</v>
-      </c>
-      <c r="B111" t="s">
-        <v>210</v>
       </c>
       <c r="C111">
         <v>90</v>
       </c>
       <c r="D111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E111" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -4139,19 +4139,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" t="s">
         <v>211</v>
-      </c>
-      <c r="B112" t="s">
-        <v>212</v>
       </c>
       <c r="C112">
         <v>90</v>
       </c>
       <c r="D112" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E112" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -4159,19 +4159,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" t="s">
         <v>213</v>
-      </c>
-      <c r="B113" t="s">
-        <v>214</v>
       </c>
       <c r="C113">
         <v>90</v>
       </c>
       <c r="D113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E113" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -4179,19 +4179,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" t="s">
         <v>215</v>
-      </c>
-      <c r="B114" t="s">
-        <v>216</v>
       </c>
       <c r="C114">
         <v>90</v>
       </c>
       <c r="D114" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E114" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -4199,19 +4199,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" t="s">
         <v>217</v>
-      </c>
-      <c r="B115" t="s">
-        <v>218</v>
       </c>
       <c r="C115">
         <v>90</v>
       </c>
       <c r="D115" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E115" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -4219,19 +4219,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>218</v>
+      </c>
+      <c r="B116" t="s">
         <v>219</v>
-      </c>
-      <c r="B116" t="s">
-        <v>220</v>
       </c>
       <c r="C116">
         <v>112</v>
       </c>
       <c r="D116" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E116" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -4239,19 +4239,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" t="s">
         <v>221</v>
-      </c>
-      <c r="B117" t="s">
-        <v>222</v>
       </c>
       <c r="C117">
         <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E117" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F117">
         <v>2</v>
@@ -4259,19 +4259,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" t="s">
         <v>223</v>
-      </c>
-      <c r="B118" t="s">
-        <v>224</v>
       </c>
       <c r="C118">
         <v>25</v>
       </c>
       <c r="D118" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E118" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -4279,19 +4279,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" t="s">
         <v>229</v>
-      </c>
-      <c r="B119" t="s">
-        <v>230</v>
       </c>
       <c r="C119">
         <v>197</v>
       </c>
       <c r="D119" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E119" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F119">
         <v>-1</v>
@@ -4299,19 +4299,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" t="s">
         <v>231</v>
-      </c>
-      <c r="B120" t="s">
-        <v>232</v>
       </c>
       <c r="C120">
         <v>197</v>
       </c>
       <c r="D120" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E120" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F120">
         <v>-1</v>
@@ -4319,19 +4319,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>232</v>
+      </c>
+      <c r="B121" t="s">
         <v>233</v>
-      </c>
-      <c r="B121" t="s">
-        <v>234</v>
       </c>
       <c r="C121">
         <v>197</v>
       </c>
       <c r="D121" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E121" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F121">
         <v>-1</v>
@@ -4339,19 +4339,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" t="s">
         <v>235</v>
-      </c>
-      <c r="B122" t="s">
-        <v>236</v>
       </c>
       <c r="C122">
         <v>100</v>
       </c>
       <c r="D122" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E122" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F122">
         <v>2</v>
@@ -4359,19 +4359,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" t="s">
         <v>237</v>
-      </c>
-      <c r="B123" t="s">
-        <v>238</v>
       </c>
       <c r="C123">
         <v>120</v>
       </c>
       <c r="D123" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E123" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F123">
         <v>2</v>
@@ -4379,19 +4379,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" t="s">
         <v>239</v>
-      </c>
-      <c r="B124" t="s">
-        <v>240</v>
       </c>
       <c r="C124">
         <v>120</v>
       </c>
       <c r="D124" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E124" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F124">
         <v>2</v>
@@ -4399,19 +4399,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>240</v>
+      </c>
+      <c r="B125" t="s">
         <v>241</v>
-      </c>
-      <c r="B125" t="s">
-        <v>242</v>
       </c>
       <c r="C125">
         <v>100</v>
       </c>
       <c r="D125" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E125" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -4419,19 +4419,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" t="s">
         <v>243</v>
-      </c>
-      <c r="B126" t="s">
-        <v>244</v>
       </c>
       <c r="C126">
         <v>38</v>
       </c>
       <c r="D126" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E126" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F126">
         <v>3</v>
@@ -4439,19 +4439,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>244</v>
+      </c>
+      <c r="B127" t="s">
         <v>245</v>
-      </c>
-      <c r="B127" t="s">
-        <v>246</v>
       </c>
       <c r="C127">
         <v>60</v>
       </c>
       <c r="D127" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E127" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F127">
         <v>3</v>
@@ -4459,19 +4459,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>246</v>
+      </c>
+      <c r="B128" t="s">
         <v>247</v>
-      </c>
-      <c r="B128" t="s">
-        <v>248</v>
       </c>
       <c r="C128">
         <v>60</v>
       </c>
       <c r="D128" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E128" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F128">
         <v>3</v>
@@ -4479,19 +4479,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>248</v>
+      </c>
+      <c r="B129" t="s">
         <v>249</v>
-      </c>
-      <c r="B129" t="s">
-        <v>250</v>
       </c>
       <c r="C129">
         <v>60</v>
       </c>
       <c r="D129" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E129" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F129">
         <v>3</v>
@@ -4499,19 +4499,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>250</v>
+      </c>
+      <c r="B130" t="s">
         <v>251</v>
-      </c>
-      <c r="B130" t="s">
-        <v>252</v>
       </c>
       <c r="C130">
         <v>60</v>
       </c>
       <c r="D130" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E130" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F130">
         <v>3</v>
@@ -4519,19 +4519,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>252</v>
+      </c>
+      <c r="B131" t="s">
         <v>253</v>
-      </c>
-      <c r="B131" t="s">
-        <v>254</v>
       </c>
       <c r="C131">
         <v>60</v>
       </c>
       <c r="D131" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E131" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F131">
         <v>3</v>
@@ -4539,19 +4539,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>254</v>
+      </c>
+      <c r="B132" t="s">
         <v>255</v>
-      </c>
-      <c r="B132" t="s">
-        <v>256</v>
       </c>
       <c r="C132">
         <v>60</v>
       </c>
       <c r="D132" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E132" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F132">
         <v>3</v>
@@ -4559,19 +4559,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>256</v>
+      </c>
+      <c r="B133" t="s">
         <v>257</v>
-      </c>
-      <c r="B133" t="s">
-        <v>258</v>
       </c>
       <c r="C133">
         <v>52</v>
       </c>
       <c r="D133" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E133" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F133">
         <v>3</v>
@@ -4579,19 +4579,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" t="s">
         <v>259</v>
-      </c>
-      <c r="B134" t="s">
-        <v>260</v>
       </c>
       <c r="C134">
         <v>35</v>
       </c>
       <c r="D134" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E134" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F134">
         <v>4</v>
@@ -4599,19 +4599,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>260</v>
+      </c>
+      <c r="B135" t="s">
         <v>261</v>
-      </c>
-      <c r="B135" t="s">
-        <v>262</v>
       </c>
       <c r="C135">
         <v>68</v>
       </c>
       <c r="D135" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E135" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F135">
         <v>4</v>
@@ -4619,19 +4619,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>262</v>
+      </c>
+      <c r="B136" t="s">
         <v>263</v>
-      </c>
-      <c r="B136" t="s">
-        <v>264</v>
       </c>
       <c r="C136">
         <v>68</v>
       </c>
       <c r="D136" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E136" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F136">
         <v>4</v>
@@ -4639,19 +4639,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137" t="s">
         <v>265</v>
-      </c>
-      <c r="B137" t="s">
-        <v>266</v>
       </c>
       <c r="C137">
         <v>68</v>
       </c>
       <c r="D137" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E137" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F137">
         <v>4</v>
@@ -4659,19 +4659,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>266</v>
+      </c>
+      <c r="B138" t="s">
         <v>267</v>
-      </c>
-      <c r="B138" t="s">
-        <v>268</v>
       </c>
       <c r="C138">
         <v>68</v>
       </c>
       <c r="D138" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E138" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F138">
         <v>4</v>
@@ -4679,19 +4679,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" t="s">
         <v>269</v>
-      </c>
-      <c r="B139" t="s">
-        <v>270</v>
       </c>
       <c r="C139">
         <v>68</v>
       </c>
       <c r="D139" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E139" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F139">
         <v>4</v>
@@ -4699,19 +4699,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>270</v>
+      </c>
+      <c r="B140" t="s">
         <v>271</v>
-      </c>
-      <c r="B140" t="s">
-        <v>272</v>
       </c>
       <c r="C140">
         <v>68</v>
       </c>
       <c r="D140" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E140" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F140">
         <v>4</v>
@@ -4719,19 +4719,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>272</v>
+      </c>
+      <c r="B141" t="s">
         <v>273</v>
-      </c>
-      <c r="B141" t="s">
-        <v>274</v>
       </c>
       <c r="C141">
         <v>49</v>
       </c>
       <c r="D141" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E141" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F141">
         <v>5</v>
@@ -4739,19 +4739,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>274</v>
+      </c>
+      <c r="B142" t="s">
         <v>275</v>
-      </c>
-      <c r="B142" t="s">
-        <v>276</v>
       </c>
       <c r="C142">
         <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E142" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F142">
         <v>5</v>
@@ -4759,19 +4759,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" t="s">
         <v>277</v>
-      </c>
-      <c r="B143" t="s">
-        <v>278</v>
       </c>
       <c r="C143">
         <v>64</v>
       </c>
       <c r="D143" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E143" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F143">
         <v>5</v>
@@ -4779,19 +4779,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" t="s">
         <v>279</v>
-      </c>
-      <c r="B144" t="s">
-        <v>280</v>
       </c>
       <c r="C144">
         <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E144" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F144">
         <v>5</v>
@@ -4799,19 +4799,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>280</v>
+      </c>
+      <c r="B145" t="s">
         <v>281</v>
-      </c>
-      <c r="B145" t="s">
-        <v>282</v>
       </c>
       <c r="C145">
         <v>64</v>
       </c>
       <c r="D145" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E145" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F145">
         <v>5</v>
@@ -4819,19 +4819,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>282</v>
+      </c>
+      <c r="B146" t="s">
         <v>283</v>
-      </c>
-      <c r="B146" t="s">
-        <v>284</v>
       </c>
       <c r="C146">
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E146" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F146">
         <v>5</v>
@@ -4839,19 +4839,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>284</v>
+      </c>
+      <c r="B147" t="s">
         <v>285</v>
-      </c>
-      <c r="B147" t="s">
-        <v>286</v>
       </c>
       <c r="C147">
         <v>64</v>
       </c>
       <c r="D147" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E147" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F147">
         <v>5</v>
@@ -4859,19 +4859,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>286</v>
+      </c>
+      <c r="B148" t="s">
         <v>287</v>
-      </c>
-      <c r="B148" t="s">
-        <v>288</v>
       </c>
       <c r="C148">
         <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E148" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F148">
         <v>5</v>
@@ -4879,19 +4879,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>288</v>
+      </c>
+      <c r="B149" t="s">
         <v>289</v>
-      </c>
-      <c r="B149" t="s">
-        <v>290</v>
       </c>
       <c r="C149">
         <v>64</v>
       </c>
       <c r="D149" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E149" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F149">
         <v>5</v>
@@ -4899,19 +4899,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>290</v>
+      </c>
+      <c r="B150" t="s">
         <v>291</v>
-      </c>
-      <c r="B150" t="s">
-        <v>292</v>
       </c>
       <c r="C150">
         <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E150" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F150">
         <v>5</v>
@@ -4919,19 +4919,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>292</v>
+      </c>
+      <c r="B151" t="s">
         <v>293</v>
-      </c>
-      <c r="B151" t="s">
-        <v>294</v>
       </c>
       <c r="C151">
         <v>64</v>
       </c>
       <c r="D151" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E151" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F151">
         <v>5</v>
@@ -4939,19 +4939,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>294</v>
+      </c>
+      <c r="B152" t="s">
         <v>295</v>
-      </c>
-      <c r="B152" t="s">
-        <v>296</v>
       </c>
       <c r="C152">
         <v>25</v>
       </c>
       <c r="D152" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E152" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F152">
         <v>5</v>
@@ -4959,19 +4959,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>320</v>
+      </c>
+      <c r="B153" t="s">
         <v>321</v>
-      </c>
-      <c r="B153" t="s">
-        <v>322</v>
       </c>
       <c r="C153">
         <v>94</v>
       </c>
       <c r="D153" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E153" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -4979,19 +4979,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>322</v>
+      </c>
+      <c r="B154" t="s">
         <v>323</v>
-      </c>
-      <c r="B154" t="s">
-        <v>324</v>
       </c>
       <c r="C154">
         <v>94</v>
       </c>
       <c r="D154" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E154" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -4999,19 +4999,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>324</v>
+      </c>
+      <c r="B155" t="s">
         <v>325</v>
-      </c>
-      <c r="B155" t="s">
-        <v>326</v>
       </c>
       <c r="C155">
         <v>80</v>
       </c>
       <c r="D155" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E155" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -5019,19 +5019,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>326</v>
+      </c>
+      <c r="B156" t="s">
         <v>327</v>
-      </c>
-      <c r="B156" t="s">
-        <v>328</v>
       </c>
       <c r="C156">
         <v>82</v>
       </c>
       <c r="D156" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E156" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -5039,19 +5039,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>328</v>
+      </c>
+      <c r="B157" t="s">
         <v>329</v>
-      </c>
-      <c r="B157" t="s">
-        <v>330</v>
       </c>
       <c r="C157">
         <v>80</v>
       </c>
       <c r="D157" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E157" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -5059,19 +5059,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>330</v>
+      </c>
+      <c r="B158" t="s">
         <v>331</v>
-      </c>
-      <c r="B158" t="s">
-        <v>332</v>
       </c>
       <c r="C158">
         <v>80</v>
       </c>
       <c r="D158" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E158" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -5079,19 +5079,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>332</v>
+      </c>
+      <c r="B159" t="s">
         <v>333</v>
-      </c>
-      <c r="B159" t="s">
-        <v>334</v>
       </c>
       <c r="C159">
         <v>59</v>
       </c>
       <c r="D159" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E159" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -5099,19 +5099,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>334</v>
+      </c>
+      <c r="B160" t="s">
         <v>335</v>
-      </c>
-      <c r="B160" t="s">
-        <v>336</v>
       </c>
       <c r="C160">
         <v>59</v>
       </c>
       <c r="D160" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E160" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -5119,19 +5119,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>296</v>
+      </c>
+      <c r="B161" t="s">
         <v>297</v>
-      </c>
-      <c r="B161" t="s">
-        <v>298</v>
       </c>
       <c r="C161">
         <v>100</v>
       </c>
       <c r="D161" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E161" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -5139,19 +5139,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>298</v>
+      </c>
+      <c r="B162" t="s">
         <v>299</v>
-      </c>
-      <c r="B162" t="s">
-        <v>300</v>
       </c>
       <c r="C162">
         <v>100</v>
       </c>
       <c r="D162" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E162" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -5159,19 +5159,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>300</v>
+      </c>
+      <c r="B163" t="s">
         <v>301</v>
-      </c>
-      <c r="B163" t="s">
-        <v>302</v>
       </c>
       <c r="C163">
         <v>100</v>
       </c>
       <c r="D163" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E163" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -5179,19 +5179,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>302</v>
+      </c>
+      <c r="B164" t="s">
         <v>303</v>
-      </c>
-      <c r="B164" t="s">
-        <v>304</v>
       </c>
       <c r="C164">
         <v>100</v>
       </c>
       <c r="D164" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E164" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -5199,19 +5199,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>304</v>
+      </c>
+      <c r="B165" t="s">
         <v>305</v>
-      </c>
-      <c r="B165" t="s">
-        <v>306</v>
       </c>
       <c r="C165">
         <v>200</v>
       </c>
       <c r="D165" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E165" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F165">
         <v>-1</v>
@@ -5219,19 +5219,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>314</v>
+      </c>
+      <c r="B166" t="s">
         <v>315</v>
-      </c>
-      <c r="B166" t="s">
-        <v>316</v>
       </c>
       <c r="C166">
         <v>160</v>
       </c>
       <c r="D166" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E166" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -5239,19 +5239,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>316</v>
+      </c>
+      <c r="B167" t="s">
         <v>317</v>
-      </c>
-      <c r="B167" t="s">
-        <v>318</v>
       </c>
       <c r="C167">
         <v>160</v>
       </c>
       <c r="D167" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E167" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -5259,19 +5259,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>318</v>
+      </c>
+      <c r="B168" t="s">
         <v>319</v>
-      </c>
-      <c r="B168" t="s">
-        <v>320</v>
       </c>
       <c r="C168">
         <v>160</v>
       </c>
       <c r="D168" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E168" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -5279,19 +5279,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>346</v>
+      </c>
+      <c r="B169" t="s">
         <v>347</v>
-      </c>
-      <c r="B169" t="s">
-        <v>348</v>
       </c>
       <c r="C169">
         <v>70</v>
       </c>
       <c r="D169" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E169" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F169">
         <v>-1</v>
@@ -5299,19 +5299,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>348</v>
+      </c>
+      <c r="B170" t="s">
         <v>349</v>
-      </c>
-      <c r="B170" t="s">
-        <v>350</v>
       </c>
       <c r="C170">
         <v>60</v>
       </c>
       <c r="D170" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E170" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F170">
         <v>-1</v>
@@ -5319,19 +5319,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>350</v>
+      </c>
+      <c r="B171" t="s">
         <v>351</v>
-      </c>
-      <c r="B171" t="s">
-        <v>352</v>
       </c>
       <c r="C171">
         <v>60</v>
       </c>
       <c r="D171" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E171" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F171">
         <v>-1</v>
@@ -5339,19 +5339,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>352</v>
+      </c>
+      <c r="B172" t="s">
         <v>353</v>
-      </c>
-      <c r="B172" t="s">
-        <v>354</v>
       </c>
       <c r="C172">
         <v>60</v>
       </c>
       <c r="D172" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E172" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F172">
         <v>-1</v>
@@ -5359,19 +5359,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>354</v>
+      </c>
+      <c r="B173" t="s">
         <v>355</v>
-      </c>
-      <c r="B173" t="s">
-        <v>356</v>
       </c>
       <c r="C173">
         <v>60</v>
       </c>
       <c r="D173" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E173" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F173">
         <v>-1</v>
@@ -5379,19 +5379,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>356</v>
+      </c>
+      <c r="B174" t="s">
         <v>357</v>
-      </c>
-      <c r="B174" t="s">
-        <v>358</v>
       </c>
       <c r="C174">
         <v>77</v>
       </c>
       <c r="D174" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E174" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -5399,19 +5399,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175" t="s">
         <v>359</v>
-      </c>
-      <c r="B175" t="s">
-        <v>360</v>
       </c>
       <c r="C175">
         <v>77</v>
       </c>
       <c r="D175" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E175" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -5419,19 +5419,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>360</v>
+      </c>
+      <c r="B176" t="s">
         <v>361</v>
-      </c>
-      <c r="B176" t="s">
-        <v>362</v>
       </c>
       <c r="C176">
         <v>30</v>
       </c>
       <c r="D176" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E176" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>362</v>
+      </c>
+      <c r="B177" t="s">
         <v>363</v>
-      </c>
-      <c r="B177" t="s">
-        <v>364</v>
       </c>
       <c r="C177">
         <v>30</v>
       </c>
       <c r="D177" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E177" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -5459,19 +5459,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>364</v>
+      </c>
+      <c r="B178" t="s">
         <v>365</v>
-      </c>
-      <c r="B178" t="s">
-        <v>366</v>
       </c>
       <c r="C178">
         <v>30</v>
       </c>
       <c r="D178" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E178" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -5479,19 +5479,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>366</v>
+      </c>
+      <c r="B179" t="s">
         <v>367</v>
-      </c>
-      <c r="B179" t="s">
-        <v>368</v>
       </c>
       <c r="C179">
         <v>160</v>
       </c>
       <c r="D179" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E179" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F179">
         <v>-1</v>
@@ -5499,19 +5499,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>368</v>
+      </c>
+      <c r="B180" t="s">
         <v>369</v>
-      </c>
-      <c r="B180" t="s">
-        <v>370</v>
       </c>
       <c r="C180">
         <v>160</v>
       </c>
       <c r="D180" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E180" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F180">
         <v>-1</v>
@@ -5519,19 +5519,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>370</v>
+      </c>
+      <c r="B181" t="s">
         <v>371</v>
-      </c>
-      <c r="B181" t="s">
-        <v>372</v>
       </c>
       <c r="C181">
         <v>80</v>
       </c>
       <c r="D181" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E181" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F181">
         <v>2</v>
@@ -5539,19 +5539,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>372</v>
+      </c>
+      <c r="B182" t="s">
         <v>373</v>
-      </c>
-      <c r="B182" t="s">
-        <v>374</v>
       </c>
       <c r="C182">
         <v>80</v>
       </c>
       <c r="D182" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E182" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F182">
         <v>2</v>
@@ -5559,19 +5559,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>374</v>
+      </c>
+      <c r="B183" t="s">
         <v>375</v>
-      </c>
-      <c r="B183" t="s">
-        <v>376</v>
       </c>
       <c r="C183">
         <v>100</v>
       </c>
       <c r="D183" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E183" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F183">
         <v>2</v>
@@ -5579,19 +5579,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>376</v>
+      </c>
+      <c r="B184" t="s">
         <v>377</v>
-      </c>
-      <c r="B184" t="s">
-        <v>378</v>
       </c>
       <c r="C184">
         <v>100</v>
       </c>
       <c r="D184" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E184" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -5599,19 +5599,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>378</v>
+      </c>
+      <c r="B185" t="s">
         <v>379</v>
-      </c>
-      <c r="B185" t="s">
-        <v>380</v>
       </c>
       <c r="C185">
         <v>80</v>
       </c>
       <c r="D185" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E185" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -5619,19 +5619,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>380</v>
+      </c>
+      <c r="B186" t="s">
         <v>381</v>
-      </c>
-      <c r="B186" t="s">
-        <v>382</v>
       </c>
       <c r="C186">
         <v>80</v>
       </c>
       <c r="D186" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E186" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F186">
         <v>3</v>
@@ -5639,19 +5639,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>382</v>
+      </c>
+      <c r="B187" t="s">
         <v>383</v>
-      </c>
-      <c r="B187" t="s">
-        <v>384</v>
       </c>
       <c r="C187">
         <v>100</v>
       </c>
       <c r="D187" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E187" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F187">
         <v>3</v>
@@ -5659,19 +5659,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>384</v>
+      </c>
+      <c r="B188" t="s">
         <v>385</v>
-      </c>
-      <c r="B188" t="s">
-        <v>386</v>
       </c>
       <c r="C188">
         <v>100</v>
       </c>
       <c r="D188" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E188" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F188">
         <v>3</v>
@@ -5679,19 +5679,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>386</v>
+      </c>
+      <c r="B189" t="s">
         <v>387</v>
-      </c>
-      <c r="B189" t="s">
-        <v>388</v>
       </c>
       <c r="C189">
         <v>60</v>
       </c>
       <c r="D189" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E189" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F189">
         <v>4</v>
@@ -5699,19 +5699,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>388</v>
+      </c>
+      <c r="B190" t="s">
         <v>389</v>
-      </c>
-      <c r="B190" t="s">
-        <v>390</v>
       </c>
       <c r="C190">
         <v>60</v>
       </c>
       <c r="D190" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E190" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F190">
         <v>4</v>
@@ -5719,19 +5719,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>390</v>
+      </c>
+      <c r="B191" t="s">
         <v>391</v>
-      </c>
-      <c r="B191" t="s">
-        <v>392</v>
       </c>
       <c r="C191">
         <v>60</v>
       </c>
       <c r="D191" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E191" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F191">
         <v>4</v>
@@ -5739,19 +5739,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>392</v>
+      </c>
+      <c r="B192" t="s">
         <v>393</v>
-      </c>
-      <c r="B192" t="s">
-        <v>394</v>
       </c>
       <c r="C192">
         <v>60</v>
       </c>
       <c r="D192" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E192" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F192">
         <v>4</v>
@@ -5759,19 +5759,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>394</v>
+      </c>
+      <c r="B193" t="s">
         <v>395</v>
-      </c>
-      <c r="B193" t="s">
-        <v>396</v>
       </c>
       <c r="C193">
         <v>70</v>
       </c>
       <c r="D193" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E193" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F193">
         <v>4</v>
@@ -5779,19 +5779,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>396</v>
+      </c>
+      <c r="B194" t="s">
         <v>397</v>
-      </c>
-      <c r="B194" t="s">
-        <v>398</v>
       </c>
       <c r="C194">
         <v>141</v>
       </c>
       <c r="D194" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E194" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F194">
         <v>2</v>
@@ -5799,19 +5799,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>398</v>
+      </c>
+      <c r="B195" t="s">
         <v>399</v>
-      </c>
-      <c r="B195" t="s">
-        <v>400</v>
       </c>
       <c r="C195">
         <v>141</v>
       </c>
       <c r="D195" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F195">
         <v>2</v>
@@ -5819,19 +5819,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>400</v>
+      </c>
+      <c r="B196" t="s">
         <v>401</v>
-      </c>
-      <c r="B196" t="s">
-        <v>402</v>
       </c>
       <c r="C196">
         <v>141</v>
       </c>
       <c r="D196" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E196" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F196">
         <v>2</v>
@@ -5839,19 +5839,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>402</v>
+      </c>
+      <c r="B197" t="s">
         <v>403</v>
-      </c>
-      <c r="B197" t="s">
-        <v>404</v>
       </c>
       <c r="C197">
         <v>141</v>
       </c>
       <c r="D197" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E197" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F197">
         <v>2</v>
@@ -5859,19 +5859,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>404</v>
+      </c>
+      <c r="B198" t="s">
         <v>405</v>
-      </c>
-      <c r="B198" t="s">
-        <v>406</v>
       </c>
       <c r="C198">
         <v>141</v>
       </c>
       <c r="D198" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E198" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F198">
         <v>2</v>
@@ -5879,19 +5879,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>406</v>
+      </c>
+      <c r="B199" t="s">
         <v>407</v>
-      </c>
-      <c r="B199" t="s">
-        <v>408</v>
       </c>
       <c r="C199">
         <v>56</v>
       </c>
       <c r="D199" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E199" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F199">
         <v>3</v>
@@ -5899,19 +5899,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>408</v>
+      </c>
+      <c r="B200" t="s">
         <v>409</v>
-      </c>
-      <c r="B200" t="s">
-        <v>410</v>
       </c>
       <c r="C200">
         <v>40</v>
       </c>
       <c r="D200" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E200" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F200">
         <v>3</v>
@@ -5919,19 +5919,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>410</v>
+      </c>
+      <c r="B201" t="s">
         <v>411</v>
-      </c>
-      <c r="B201" t="s">
-        <v>412</v>
       </c>
       <c r="C201">
         <v>56</v>
       </c>
       <c r="D201" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E201" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F201">
         <v>3</v>
@@ -5939,19 +5939,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>412</v>
+      </c>
+      <c r="B202" t="s">
         <v>413</v>
-      </c>
-      <c r="B202" t="s">
-        <v>414</v>
       </c>
       <c r="C202">
         <v>46</v>
       </c>
       <c r="D202" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E202" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F202">
         <v>3</v>
@@ -5959,19 +5959,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>414</v>
+      </c>
+      <c r="B203" t="s">
         <v>415</v>
-      </c>
-      <c r="B203" t="s">
-        <v>416</v>
       </c>
       <c r="C203">
         <v>56</v>
       </c>
       <c r="D203" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E203" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F203">
         <v>3</v>
@@ -5979,19 +5979,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>416</v>
+      </c>
+      <c r="B204" t="s">
         <v>417</v>
-      </c>
-      <c r="B204" t="s">
-        <v>418</v>
       </c>
       <c r="C204">
         <v>40</v>
       </c>
       <c r="D204" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E204" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F204">
         <v>3</v>
@@ -5999,19 +5999,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B205" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C205">
         <v>46</v>
       </c>
       <c r="D205" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E205" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F205">
         <v>3</v>
@@ -6019,19 +6019,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>419</v>
+      </c>
+      <c r="B206" t="s">
         <v>420</v>
-      </c>
-      <c r="B206" t="s">
-        <v>421</v>
       </c>
       <c r="C206">
         <v>60</v>
       </c>
       <c r="D206" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E206" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F206">
         <v>-1</v>
@@ -6039,19 +6039,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>421</v>
+      </c>
+      <c r="B207" t="s">
         <v>422</v>
-      </c>
-      <c r="B207" t="s">
-        <v>423</v>
       </c>
       <c r="C207">
         <v>60</v>
       </c>
       <c r="D207" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E207" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F207">
         <v>-1</v>
@@ -6059,19 +6059,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>423</v>
+      </c>
+      <c r="B208" t="s">
         <v>424</v>
-      </c>
-      <c r="B208" t="s">
-        <v>425</v>
       </c>
       <c r="C208">
         <v>60</v>
       </c>
       <c r="D208" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E208" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F208">
         <v>-1</v>
@@ -6079,19 +6079,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>425</v>
+      </c>
+      <c r="B209" t="s">
         <v>426</v>
-      </c>
-      <c r="B209" t="s">
-        <v>427</v>
       </c>
       <c r="C209">
         <v>60</v>
       </c>
       <c r="D209" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E209" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F209">
         <v>-1</v>
@@ -6099,19 +6099,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>427</v>
+      </c>
+      <c r="B210" t="s">
         <v>428</v>
-      </c>
-      <c r="B210" t="s">
-        <v>429</v>
       </c>
       <c r="C210">
         <v>60</v>
       </c>
       <c r="D210" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E210" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -6119,19 +6119,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>429</v>
+      </c>
+      <c r="B211" t="s">
         <v>430</v>
-      </c>
-      <c r="B211" t="s">
-        <v>431</v>
       </c>
       <c r="C211">
         <v>60</v>
       </c>
       <c r="D211" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E211" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -6139,19 +6139,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>431</v>
+      </c>
+      <c r="B212" t="s">
         <v>432</v>
-      </c>
-      <c r="B212" t="s">
-        <v>433</v>
       </c>
       <c r="C212">
         <v>60</v>
       </c>
       <c r="D212" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E212" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -6159,19 +6159,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>433</v>
+      </c>
+      <c r="B213" t="s">
         <v>434</v>
-      </c>
-      <c r="B213" t="s">
-        <v>435</v>
       </c>
       <c r="C213">
         <v>60</v>
       </c>
       <c r="D213" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E213" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F213">
         <v>2</v>
@@ -6179,19 +6179,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>435</v>
+      </c>
+      <c r="B214" t="s">
         <v>436</v>
-      </c>
-      <c r="B214" t="s">
-        <v>437</v>
       </c>
       <c r="C214">
         <v>90</v>
       </c>
       <c r="D214" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E214" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F214">
         <v>2</v>
@@ -6199,19 +6199,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>437</v>
+      </c>
+      <c r="B215" t="s">
         <v>438</v>
-      </c>
-      <c r="B215" t="s">
-        <v>439</v>
       </c>
       <c r="C215">
         <v>90</v>
       </c>
       <c r="D215" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E215" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F215">
         <v>2</v>
@@ -6219,19 +6219,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>439</v>
+      </c>
+      <c r="B216" t="s">
         <v>440</v>
-      </c>
-      <c r="B216" t="s">
-        <v>441</v>
       </c>
       <c r="C216">
         <v>60</v>
       </c>
       <c r="D216" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E216" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F216">
         <v>3</v>
@@ -6239,19 +6239,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>441</v>
+      </c>
+      <c r="B217" t="s">
         <v>442</v>
-      </c>
-      <c r="B217" t="s">
-        <v>443</v>
       </c>
       <c r="C217">
         <v>90</v>
       </c>
       <c r="D217" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E217" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F217">
         <v>3</v>
@@ -6259,19 +6259,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>443</v>
+      </c>
+      <c r="B218" t="s">
         <v>444</v>
-      </c>
-      <c r="B218" t="s">
-        <v>445</v>
       </c>
       <c r="C218">
         <v>90</v>
       </c>
       <c r="D218" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E218" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F218">
         <v>3</v>
@@ -6279,19 +6279,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>445</v>
+      </c>
+      <c r="B219" t="s">
         <v>446</v>
-      </c>
-      <c r="B219" t="s">
-        <v>447</v>
       </c>
       <c r="C219">
         <v>60</v>
       </c>
       <c r="D219" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E219" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F219">
         <v>4</v>
@@ -6299,19 +6299,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>447</v>
+      </c>
+      <c r="B220" t="s">
         <v>448</v>
-      </c>
-      <c r="B220" t="s">
-        <v>449</v>
       </c>
       <c r="C220">
         <v>60</v>
       </c>
       <c r="D220" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E220" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F220">
         <v>4</v>
@@ -6319,19 +6319,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>449</v>
+      </c>
+      <c r="B221" t="s">
         <v>450</v>
-      </c>
-      <c r="B221" t="s">
-        <v>451</v>
       </c>
       <c r="C221">
         <v>60</v>
       </c>
       <c r="D221" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E221" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F221">
         <v>4</v>
@@ -6339,19 +6339,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>451</v>
+      </c>
+      <c r="B222" t="s">
         <v>452</v>
-      </c>
-      <c r="B222" t="s">
-        <v>453</v>
       </c>
       <c r="C222">
         <v>60</v>
       </c>
       <c r="D222" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E222" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F222">
         <v>4</v>
@@ -6359,19 +6359,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>453</v>
+      </c>
+      <c r="B223" t="s">
         <v>454</v>
-      </c>
-      <c r="B223" t="s">
-        <v>455</v>
       </c>
       <c r="C223">
         <v>60</v>
       </c>
       <c r="D223" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E223" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F223">
         <v>5</v>
@@ -6379,19 +6379,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>455</v>
+      </c>
+      <c r="B224" t="s">
         <v>456</v>
-      </c>
-      <c r="B224" t="s">
-        <v>457</v>
       </c>
       <c r="C224">
         <v>60</v>
       </c>
       <c r="D224" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E224" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F224">
         <v>5</v>
@@ -6399,19 +6399,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>457</v>
+      </c>
+      <c r="B225" t="s">
         <v>458</v>
-      </c>
-      <c r="B225" t="s">
-        <v>459</v>
       </c>
       <c r="C225">
         <v>60</v>
       </c>
       <c r="D225" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E225" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F225">
         <v>5</v>
@@ -6419,19 +6419,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>459</v>
+      </c>
+      <c r="B226" t="s">
         <v>460</v>
-      </c>
-      <c r="B226" t="s">
-        <v>461</v>
       </c>
       <c r="C226">
         <v>60</v>
       </c>
       <c r="D226" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E226" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F226">
         <v>5</v>
@@ -6439,19 +6439,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>461</v>
+      </c>
+      <c r="B227" t="s">
         <v>462</v>
-      </c>
-      <c r="B227" t="s">
-        <v>463</v>
       </c>
       <c r="C227">
         <v>60</v>
       </c>
       <c r="D227" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E227" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F227">
         <v>6</v>
@@ -6459,19 +6459,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>463</v>
+      </c>
+      <c r="B228" t="s">
         <v>464</v>
-      </c>
-      <c r="B228" t="s">
-        <v>465</v>
       </c>
       <c r="C228">
         <v>60</v>
       </c>
       <c r="D228" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E228" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F228">
         <v>6</v>
@@ -6479,19 +6479,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>465</v>
+      </c>
+      <c r="B229" t="s">
         <v>466</v>
-      </c>
-      <c r="B229" t="s">
-        <v>467</v>
       </c>
       <c r="C229">
         <v>60</v>
       </c>
       <c r="D229" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E229" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F229">
         <v>6</v>
@@ -6499,19 +6499,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>467</v>
+      </c>
+      <c r="B230" t="s">
         <v>468</v>
-      </c>
-      <c r="B230" t="s">
-        <v>469</v>
       </c>
       <c r="C230">
         <v>60</v>
       </c>
       <c r="D230" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E230" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F230">
         <v>6</v>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>306</v>
+      </c>
+      <c r="B231" t="s">
         <v>307</v>
-      </c>
-      <c r="B231" t="s">
-        <v>308</v>
       </c>
       <c r="C231">
         <v>30</v>
       </c>
       <c r="D231" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E231" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -6539,19 +6539,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>308</v>
+      </c>
+      <c r="B232" t="s">
         <v>309</v>
-      </c>
-      <c r="B232" t="s">
-        <v>310</v>
       </c>
       <c r="C232">
         <v>30</v>
       </c>
       <c r="D232" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E232" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -6559,19 +6559,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>310</v>
+      </c>
+      <c r="B233" t="s">
         <v>311</v>
-      </c>
-      <c r="B233" t="s">
-        <v>312</v>
       </c>
       <c r="C233">
         <v>30</v>
       </c>
       <c r="D233" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E233" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -6579,19 +6579,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>312</v>
+      </c>
+      <c r="B234" t="s">
         <v>313</v>
-      </c>
-      <c r="B234" t="s">
-        <v>314</v>
       </c>
       <c r="C234">
         <v>30</v>
       </c>
       <c r="D234" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E234" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F234">
         <v>1</v>
